--- a/config/forms/app/care_test.xlsx
+++ b/config/forms/app/care_test.xlsx
@@ -45,6 +45,9 @@
     <t>readonly</t>
   </si>
   <si>
+    <t xml:space="preserve"> media::image</t>
+  </si>
+  <si>
     <t>begin group</t>
   </si>
   <si>
@@ -195,19 +198,7 @@
     <t>Date of Level of Care Assessment</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>Take a Photo of the Completed form:</t>
-  </si>
-  <si>
-    <t>annotate</t>
-  </si>
-  <si>
-    <t>note</t>
+    <t xml:space="preserve">integer </t>
   </si>
   <si>
     <t xml:space="preserve">score </t>
@@ -223,6 +214,15 @@
   </si>
   <si>
     <t>Refer to:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
+  </si>
+  <si>
+    <t xml:space="preserve">findings </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Significant Findings</t>
   </si>
   <si>
     <t>list_name</t>
@@ -289,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -340,6 +340,10 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -354,7 +358,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +381,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF9FBFD"/>
         <bgColor rgb="FFF9FBFD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -424,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -443,6 +453,9 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -473,24 +486,24 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -500,13 +513,13 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -768,7 +781,9 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -784,22 +799,23 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -822,20 +838,21 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -858,20 +875,21 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -894,15 +912,16 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7"/>
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -926,15 +945,16 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7"/>
+      <c r="A6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -958,15 +978,16 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>15</v>
+      <c r="A7" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -990,15 +1011,16 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
+      <c r="A8" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1022,15 +1044,16 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>15</v>
+      <c r="A9" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1054,15 +1077,16 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>15</v>
+      <c r="A10" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1086,16 +1110,17 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
+      <c r="A11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1120,20 +1145,21 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1156,20 +1182,21 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1192,20 +1219,21 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
+      <c r="C14" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1228,20 +1256,21 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1264,20 +1293,21 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1300,16 +1330,17 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
+      <c r="A17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1334,16 +1365,17 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1368,20 +1400,21 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
+      <c r="A19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1404,20 +1437,21 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
+      <c r="C20" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1440,13 +1474,14 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1470,13 +1505,14 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1500,13 +1536,14 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1530,13 +1567,14 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1560,22 +1598,23 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="11" t="s">
         <v>37</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="11" t="s">
-        <v>38</v>
+      <c r="G25" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1596,22 +1635,23 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>40</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="11" t="s">
-        <v>41</v>
+      <c r="G26" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1632,22 +1672,23 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>12</v>
+      <c r="A27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="11" t="s">
-        <v>43</v>
+      <c r="G27" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1668,22 +1709,23 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>12</v>
+      <c r="A28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="11" t="s">
-        <v>45</v>
+      <c r="G28" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1704,22 +1746,23 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>12</v>
+      <c r="A29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="11" t="s">
-        <v>47</v>
+      <c r="G29" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1740,22 +1783,23 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>12</v>
+      <c r="A30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="11" t="s">
-        <v>49</v>
+      <c r="G30" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1776,22 +1820,23 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>12</v>
+      <c r="A31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="11" t="s">
-        <v>51</v>
+      <c r="G31" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1812,22 +1857,23 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>12</v>
+      <c r="A32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="11" t="s">
-        <v>53</v>
+      <c r="G32" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1848,20 +1894,21 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>54</v>
+      <c r="A33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1884,16 +1931,17 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="15" t="s">
+      <c r="A34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>56</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1918,16 +1966,17 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="16" t="s">
-        <v>57</v>
+      <c r="A35" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="15" t="s">
         <v>59</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1952,21 +2001,20 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="16" t="s">
-        <v>60</v>
+      <c r="A36" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>63</v>
       </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1988,19 +2036,20 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="16"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2022,19 +2071,20 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2056,10 +2106,11 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="s">
-        <v>35</v>
+      <c r="A39" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2086,6 +2137,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2137,35 +2189,35 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2188,25 +2240,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H1" s="2"/>
@@ -2230,24 +2282,24 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="26" t="str">
+      <c r="C2" s="27" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-08-21_11-06</v>
-      </c>
-      <c r="D2" s="27" t="s">
+        <v>2023-10-12_16-21</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>89</v>
       </c>
       <c r="H2" s="2"/>

--- a/config/forms/app/care_test.xlsx
+++ b/config/forms/app/care_test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="91">
   <si>
     <t>type</t>
   </si>
@@ -1928,7 +1928,9 @@
       <c r="C32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2357,7 +2359,7 @@
       </c>
       <c r="C2" s="30" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-07-08_21-39</v>
+        <v>2024-07-08_21-46</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>88</v>
